--- a/Restaurante.xlsx
+++ b/Restaurante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A98BE02-B3D2-4048-B50C-0D234ECADB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F13A0D-C2D3-46B5-8443-2CA3BF47BF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7F782998-702F-4F07-8DF8-446F47AC93CA}"/>
   </bookViews>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="50">
+  <si>
+    <t>Form Results 3</t>
+  </si>
   <si>
     <t>Programa Académico</t>
   </si>
@@ -39,36 +42,6 @@
     <t>Edad</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
     <t>Licenciatura en Lengua Castellana y Literatura</t>
   </si>
   <si>
@@ -169,6 +142,39 @@
   </si>
   <si>
     <t xml:space="preserve">Licenciatura en matemáticas </t>
+  </si>
+  <si>
+    <t>DATOS ENCUESTA</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
   </si>
 </sst>
 </file>
@@ -178,7 +184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +200,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,12 +223,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -258,26 +287,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,348 +636,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC1D653-64ED-493E-83C0-A8FFE5F1EAE6}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F40"/>
+      <selection activeCell="F4" sqref="F4:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2"/>
+    <col min="6" max="6" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="F4" s="9">
+        <v>3500</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2</v>
+      </c>
+      <c r="K4" s="8">
+        <v>10</v>
+      </c>
+      <c r="L4" s="8">
+        <v>100</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="N4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
         <v>19</v>
       </c>
-      <c r="C2" s="3">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6">
-        <v>3500</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="I5" s="1">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
         <v>100</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>100</v>
-      </c>
-      <c r="L3" s="1">
-        <v>70</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7">
-        <v>3500</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>80</v>
-      </c>
-      <c r="L4" s="1">
-        <v>20</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7">
-        <v>3500</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>70</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1">
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>80</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7">
-        <v>3700</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="N6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1">
-        <v>500</v>
-      </c>
-      <c r="L6" s="1">
-        <v>90</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B7" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7">
-        <v>3800</v>
+        <v>13</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3500</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
         <v>70</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>17</v>
+      </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3700</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1">
         <v>5</v>
@@ -943,373 +944,371 @@
         <v>2</v>
       </c>
       <c r="K8" s="1">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="L8" s="1">
         <v>90</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3800</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>200</v>
+      </c>
+      <c r="L9" s="1">
+        <v>70</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
         <v>20</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="L10" s="1">
+        <v>90</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1">
         <v>7</v>
       </c>
-      <c r="J9" s="1">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
         <v>100</v>
-      </c>
-      <c r="L9" s="1">
-        <v>80</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="7">
-        <v>50000</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1">
-        <v>100</v>
-      </c>
-      <c r="L10" s="1">
-        <v>80</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1">
-        <v>2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>50</v>
       </c>
       <c r="L11" s="1">
         <v>80</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="6">
+        <v>50000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1">
         <v>2</v>
       </c>
       <c r="K12" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L12" s="1">
         <v>80</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1">
         <v>2</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L13" s="1">
         <v>80</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3000</v>
+        <v>13</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I14" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="1">
+        <v>150</v>
+      </c>
+      <c r="L14" s="1">
         <v>80</v>
       </c>
-      <c r="L14" s="1">
-        <v>60</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3000</v>
+        <v>7</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I15" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <v>2</v>
       </c>
       <c r="K15" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
         <v>80</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>80</v>
+      </c>
+      <c r="L16" s="1">
+        <v>60</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7">
-        <v>3000</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="1">
-        <v>7</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2</v>
-      </c>
-      <c r="K16" s="1">
-        <v>10</v>
-      </c>
-      <c r="L16" s="1">
-        <v>50</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N16" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>19</v>
@@ -1318,371 +1317,371 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="7">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6">
         <v>3000</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>30</v>
+      </c>
+      <c r="L17" s="1">
+        <v>80</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="1">
-        <v>6</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2</v>
-      </c>
-      <c r="K17" s="1">
-        <v>500</v>
-      </c>
-      <c r="L17" s="1">
-        <v>60</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="B18" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <v>21</v>
-      </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+      <c r="L18" s="1">
+        <v>50</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F18" s="7">
-        <v>3700</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="1">
-        <v>8</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>5</v>
-      </c>
-      <c r="L18" s="1">
-        <v>90</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="7">
-        <v>3700</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I19" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1">
         <v>2</v>
       </c>
       <c r="K19" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L19" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3700</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="7">
-        <v>3700</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="L20" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="7">
-        <v>2800</v>
+        <v>7</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3700</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I21" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L21" s="1">
         <v>80</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2500</v>
+        <v>13</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3700</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L22" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="7">
-        <v>3500</v>
+        <v>13</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2800</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I23" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
         <v>5</v>
       </c>
       <c r="L23" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2500</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1">
         <v>4</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7">
-        <v>3000</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="1">
-        <v>5</v>
-      </c>
       <c r="J24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24" s="1">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="L24" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="7">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6">
         <v>3500</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I25" s="1">
         <v>7</v>
@@ -1691,42 +1690,42 @@
         <v>2</v>
       </c>
       <c r="K25" s="1">
+        <v>5</v>
+      </c>
+      <c r="L25" s="1">
         <v>50</v>
       </c>
-      <c r="L25" s="1">
-        <v>70</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1">
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="7">
-        <v>3700</v>
+        <v>13</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3000</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I26" s="1">
         <v>5</v>
@@ -1735,65 +1734,65 @@
         <v>2</v>
       </c>
       <c r="K26" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="L26" s="1">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1">
         <v>17</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="7">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6">
         <v>3500</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I27" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1">
         <v>2</v>
       </c>
       <c r="K27" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L27" s="1">
         <v>70</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1">
         <v>19</v>
@@ -1802,330 +1801,330 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="7">
-        <v>3000</v>
+        <v>13</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3700</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I28" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28" s="1">
         <v>2</v>
       </c>
       <c r="K28" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="L28" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="7">
+        <v>13</v>
+      </c>
+      <c r="F29" s="6">
         <v>3500</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I29" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="1">
+        <v>80</v>
+      </c>
+      <c r="L29" s="1">
         <v>70</v>
       </c>
-      <c r="L29" s="1">
-        <v>60</v>
-      </c>
       <c r="M29" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="1">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1">
+        <v>4</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>15</v>
+      </c>
+      <c r="L30" s="1">
+        <v>10</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F30" s="7">
-        <v>2000</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="1">
-        <v>3</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2</v>
-      </c>
-      <c r="K30" s="1">
-        <v>40</v>
-      </c>
-      <c r="L30" s="1">
-        <v>20</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
         <v>18</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="7">
-        <v>3000</v>
+        <v>13</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3500</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I31" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="L31" s="1">
         <v>60</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>40</v>
+      </c>
+      <c r="L32" s="1">
+        <v>20</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="7">
-        <v>3000</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="1">
-        <v>5</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2</v>
-      </c>
-      <c r="K32" s="1">
-        <v>20</v>
-      </c>
-      <c r="L32" s="1">
-        <v>70</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="7">
-        <v>3500</v>
+        <v>7</v>
+      </c>
+      <c r="F33" s="6">
+        <v>3000</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I33" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="L33" s="1">
         <v>60</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="1">
-        <v>21</v>
-      </c>
-      <c r="C34" s="1">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="7">
-        <v>3000</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I34" s="1">
         <v>5</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L34" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="7">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6">
         <v>3500</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I35" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J35" s="1">
         <v>2</v>
@@ -2134,106 +2133,106 @@
         <v>50</v>
       </c>
       <c r="L35" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>40</v>
+      </c>
+      <c r="L36" s="1">
+        <v>30</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F36" s="7">
-        <v>3000</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="1">
-        <v>7</v>
-      </c>
-      <c r="J36" s="1">
-        <v>2</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1</v>
-      </c>
-      <c r="L36" s="1">
-        <v>100</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="1">
-        <v>19</v>
-      </c>
-      <c r="C37" s="1">
-        <v>4</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="H37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>50</v>
+      </c>
+      <c r="L37" s="1">
+        <v>30</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F37" s="7">
-        <v>3500</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="1">
-        <v>6</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1">
-        <v>100</v>
-      </c>
-      <c r="L37" s="1">
-        <v>70</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1">
         <v>17</v>
@@ -2242,128 +2241,219 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="7">
+        <v>7</v>
+      </c>
+      <c r="F38" s="6">
         <v>3000</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I38" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J38" s="1">
         <v>2</v>
       </c>
       <c r="K38" s="1">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="7">
-        <v>3700</v>
+        <v>7</v>
+      </c>
+      <c r="F39" s="6">
+        <v>3500</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I39" s="1">
         <v>6</v>
       </c>
       <c r="J39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L39" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="1">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>60</v>
+      </c>
+      <c r="L40" s="1">
+        <v>30</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="1">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="6">
+        <v>3700</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="1">
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1">
+        <v>6</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>60</v>
+      </c>
+      <c r="L41" s="1">
+        <v>60</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
         <v>18</v>
       </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>15</v>
+      </c>
+      <c r="L42" s="1">
+        <v>60</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="7">
-        <v>3000</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="1">
-        <v>3</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1">
-        <v>15</v>
-      </c>
-      <c r="L40" s="1">
-        <v>60</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
